--- a/pre-claim-investigation-uat/src/main/webapp/resources/uploads/Import Case.xlsx
+++ b/pre-claim-investigation-uat/src/main/webapp/resources/uploads/Import Case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pre-Claim Repositories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dixon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,117 +24,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Policy Number</t>
   </si>
   <si>
+    <t>Investigation Category</t>
+  </si>
+  <si>
+    <t>Intimation Type</t>
+  </si>
+  <si>
     <t>Insured Name</t>
   </si>
   <si>
+    <t>Insured DOD</t>
+  </si>
+  <si>
+    <t>Insured DOB</t>
+  </si>
+  <si>
+    <t>Sum Assured</t>
+  </si>
+  <si>
     <t>Claimant City</t>
   </si>
   <si>
-    <t>Investigation Category</t>
-  </si>
-  <si>
-    <t>Sum Assured</t>
+    <t>Nominee Name</t>
+  </si>
+  <si>
+    <t>Nominee Mob</t>
+  </si>
+  <si>
+    <t>Nominee Address</t>
+  </si>
+  <si>
+    <t>Insured Address</t>
   </si>
   <si>
     <t>C000000001</t>
   </si>
   <si>
+    <t>Full Investigation</t>
+  </si>
+  <si>
+    <t>PIV</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
     <t>C000000002</t>
   </si>
   <si>
     <t>C000000003</t>
-  </si>
-  <si>
-    <t>C000000004</t>
-  </si>
-  <si>
-    <t>C000000005</t>
-  </si>
-  <si>
-    <t>C000000006</t>
-  </si>
-  <si>
-    <t>C000000007</t>
-  </si>
-  <si>
-    <t>C000000008</t>
-  </si>
-  <si>
-    <t>C000000009</t>
-  </si>
-  <si>
-    <t>C000000010</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Full Investigation</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>SFD</t>
-  </si>
-  <si>
-    <t>FDS</t>
-  </si>
-  <si>
-    <t>DSFD</t>
-  </si>
-  <si>
-    <t>ERER</t>
-  </si>
-  <si>
-    <t>ERRV</t>
-  </si>
-  <si>
-    <t>DFDF</t>
-  </si>
-  <si>
-    <t>Insured DOB</t>
-  </si>
-  <si>
-    <t>Insured DOD</t>
-  </si>
-  <si>
-    <t>Intimation Type</t>
-  </si>
-  <si>
-    <t>Nominee Name</t>
-  </si>
-  <si>
-    <t>Nominee Mob</t>
-  </si>
-  <si>
-    <t>Nominee Address</t>
-  </si>
-  <si>
-    <t>Insured Address</t>
-  </si>
-  <si>
-    <t>PIV</t>
-  </si>
-  <si>
-    <t>PIRV</t>
-  </si>
-  <si>
-    <t>LIVE</t>
-  </si>
-  <si>
-    <t>Thane</t>
   </si>
 </sst>
 </file>
@@ -453,20 +399,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -474,51 +426,51 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1">
         <v>38011</v>
@@ -530,30 +482,30 @@
         <v>100000</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>8898928462</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -568,13 +520,13 @@
         <v>100000</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
+      <c r="J3">
+        <v>8898928462</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -585,16 +537,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>38011</v>
@@ -606,288 +558,43 @@
         <v>100000</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>8898928462</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>38011</v>
-      </c>
-      <c r="F5" s="1">
-        <v>34260</v>
-      </c>
-      <c r="G5">
-        <v>100000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1">
-        <v>38011</v>
-      </c>
-      <c r="F6" s="1">
-        <v>34260</v>
-      </c>
-      <c r="G6">
-        <v>100000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1">
-        <v>38011</v>
-      </c>
-      <c r="F7" s="1">
-        <v>34260</v>
-      </c>
-      <c r="G7">
-        <v>100000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1">
-        <v>38011</v>
-      </c>
-      <c r="F8" s="1">
-        <v>34260</v>
-      </c>
-      <c r="G8">
-        <v>100000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1">
-        <v>38011</v>
-      </c>
-      <c r="F9" s="1">
-        <v>34260</v>
-      </c>
-      <c r="G9">
-        <v>100000</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1">
-        <v>38011</v>
-      </c>
-      <c r="F10" s="1">
-        <v>34260</v>
-      </c>
-      <c r="G10">
-        <v>100000</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1">
-        <v>38011</v>
-      </c>
-      <c r="F11" s="1">
-        <v>34260</v>
-      </c>
-      <c r="G11">
-        <v>100000</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Mobile Number" error="Mobile Number should be of 10 digits" sqref="J2:J4">
+      <formula1>1000000000</formula1>
+      <formula2>9999999999</formula2>
+    </dataValidation>
+    <dataValidation type="date" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid DOB" error="DOB should be less than Today's Date" sqref="F2:F4">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid DOD" error="DOD should be less than Today's Date" sqref="E2:E4">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Intimation Type" error="Kindly select from dropdown" sqref="C2:C4">
+      <formula1>"PIV, LIVE, PIRV, CDP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Investigation Category" error="Kindly select from dropdown" sqref="B2:B4">
+      <formula1>"Full Investigation, Re Investigation, Document Pickup"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pre-claim-investigation-uat/src/main/webapp/resources/uploads/Import Case.xlsx
+++ b/pre-claim-investigation-uat/src/main/webapp/resources/uploads/Import Case.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Policy Number</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>C000000003</t>
+  </si>
+  <si>
+    <t>Nominee Pincode</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,10 +421,11 @@
     <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,10 +460,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -493,11 +500,14 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>401107</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -531,11 +541,14 @@
       <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>401107</v>
+      </c>
+      <c r="M3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -569,7 +582,10 @@
       <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>401107</v>
+      </c>
+      <c r="M4" t="s">
         <v>15</v>
       </c>
     </row>
